--- a/Teaching/2017-2018/Biostat web page/results/Tabel_Biostatistica_v1.xlsx
+++ b/Teaching/2017-2018/Biostat web page/results/Tabel_Biostatistica_v1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ADB2EC19-01A9-4B2F-AEE1-931F22F16886}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="10_ncr:8100000_{ADB2EC19-01A9-4B2F-AEE1-931F22F16886}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{C5A7C5E4-33ED-4108-A6AA-BBC7C68DFFFE}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -395,12 +395,12 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -428,7 +428,7 @@
         <v>503</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -442,7 +442,7 @@
         <v>503</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -470,7 +470,7 @@
         <v>503</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -484,7 +484,7 @@
         <v>503</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -498,7 +498,7 @@
         <v>503</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -512,7 +512,7 @@
         <v>503</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4">
